--- a/files/data_dictionary.xlsx
+++ b/files/data_dictionary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niclasjareborg/Google Drive/dev/dm-intro/module-metadata-dm-practices/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B25B1-009A-F948-8F59-404CDE9024A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC683AA9-1E14-644B-9561-267CE8C6487D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{9D35A336-9EA3-9945-AE93-9E131CF2DB3B}"/>
+    <workbookView xWindow="1440" yWindow="1560" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{9D35A336-9EA3-9945-AE93-9E131CF2DB3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="ep4" sheetId="2" r:id="rId1"/>
-    <sheet name="ep5" sheetId="1" r:id="rId2"/>
+    <sheet name="ep4-1" sheetId="3" r:id="rId1"/>
+    <sheet name="ep4-2" sheetId="2" r:id="rId2"/>
+    <sheet name="ep5" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Current variable name</t>
   </si>
@@ -176,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +506,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB77EFA5-C022-1A4D-B708-91676620FC31}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C4F56A-2C90-CA43-9711-348A6F198EA1}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -650,12 +793,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615F1D5-F0D8-104F-80E0-01F1C5A7495D}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -711,19 +854,19 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -734,7 +877,7 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -746,10 +889,10 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4"/>
@@ -758,7 +901,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -772,10 +915,10 @@
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="4"/>
